--- a/data/gas trading volumes and churn ratio OFGEM.xlsx
+++ b/data/gas trading volumes and churn ratio OFGEM.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucruffie/Desktop/Imperial/thesis/VAR model/GasPriceDecomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B72507D9-D191-3247-9A84-C607BFA0B462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADFA5B9-F9E5-DA4D-99C2-606A15AA21F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="2720" windowWidth="27640" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -40,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -606,6 +619,1801 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ark1'!$A$3:$A$137</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="0">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40634</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40695</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40756</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40787</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40817</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40848</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40969</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43678</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43709</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$B$3:$B$137</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7676-D84E-B7E1-C83F85DAF024}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1289824527"/>
+        <c:axId val="1289770319"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1289824527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1500">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Months</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="mmm\ yyyy" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1289770319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1289770319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1500">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Chrun rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1401822675621736E-2"/>
+              <c:y val="0.29951413081832035"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1289824527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F5BD07-4011-6D3A-EC9A-4C8E8B29855C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -902,14 +2710,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
@@ -918,7 +2726,7 @@
     <col min="5" max="5" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -927,7 +2735,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -942,7 +2750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>40544</v>
       </c>
@@ -959,7 +2767,7 @@
         <v>103.61</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>40575</v>
       </c>
@@ -976,7 +2784,7 @@
         <v>123.64</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>40603</v>
       </c>
@@ -993,7 +2801,7 @@
         <v>145.68</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>40634</v>
       </c>
@@ -1010,7 +2818,7 @@
         <v>85.32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>40664</v>
       </c>
@@ -1027,7 +2835,7 @@
         <v>81.349999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>40695</v>
       </c>
@@ -1044,7 +2852,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>40725</v>
       </c>
@@ -1061,7 +2869,7 @@
         <v>89.15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>40756</v>
       </c>
@@ -1078,7 +2886,7 @@
         <v>115.88</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>40787</v>
       </c>
@@ -1095,7 +2903,7 @@
         <v>108.36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>40817</v>
       </c>
@@ -1112,7 +2920,7 @@
         <v>89.39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>40848</v>
       </c>
@@ -1129,7 +2937,7 @@
         <v>109.81</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>40878</v>
       </c>
@@ -1146,7 +2954,7 @@
         <v>66.34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>40909</v>
       </c>
@@ -1163,7 +2971,7 @@
         <v>137.41999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>40940</v>
       </c>
@@ -1180,7 +2988,7 @@
         <v>151.69</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>40969</v>
       </c>
@@ -1197,7 +3005,7 @@
         <v>126.35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>41000</v>
       </c>
@@ -1214,7 +3022,7 @@
         <v>86.1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>41030</v>
       </c>
@@ -1231,7 +3039,7 @@
         <v>99.46</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>41061</v>
       </c>
@@ -1248,7 +3056,7 @@
         <v>76.28</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>41091</v>
       </c>
@@ -1265,7 +3073,7 @@
         <v>83.71</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>41122</v>
       </c>
@@ -1282,7 +3090,7 @@
         <v>82.96</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>41153</v>
       </c>
@@ -1299,7 +3107,7 @@
         <v>73.819999999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>41183</v>
       </c>
@@ -1316,7 +3124,7 @@
         <v>97.1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>41214</v>
       </c>
@@ -1333,7 +3141,7 @@
         <v>79.67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>41244</v>
       </c>
@@ -1350,7 +3158,7 @@
         <v>62.54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>41275</v>
       </c>
@@ -1367,7 +3175,7 @@
         <v>95.63</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>41306</v>
       </c>
@@ -1384,7 +3192,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>41334</v>
       </c>
@@ -1401,7 +3209,7 @@
         <v>98.72</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>41365</v>
       </c>
@@ -1418,7 +3226,7 @@
         <v>80.81</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>41395</v>
       </c>
@@ -1435,7 +3243,7 @@
         <v>80.739999999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>41426</v>
       </c>
@@ -1452,7 +3260,7 @@
         <v>85.54</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>41456</v>
       </c>
@@ -1469,7 +3277,7 @@
         <v>61.22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>41487</v>
       </c>
@@ -1486,7 +3294,7 @@
         <v>67.709999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>41518</v>
       </c>
@@ -1503,7 +3311,7 @@
         <v>84.27</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>41548</v>
       </c>
@@ -1520,7 +3328,7 @@
         <v>91.93</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>41579</v>
       </c>
@@ -1537,7 +3345,7 @@
         <v>82.78</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>41609</v>
       </c>
@@ -1554,7 +3362,7 @@
         <v>53.87</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>41640</v>
       </c>
@@ -1571,7 +3379,7 @@
         <v>112.19</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>41671</v>
       </c>
@@ -1588,7 +3396,7 @@
         <v>112.6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>41699</v>
       </c>
@@ -1605,7 +3413,7 @@
         <v>110.45</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41730</v>
       </c>
@@ -1622,7 +3430,7 @@
         <v>88.62</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>41760</v>
       </c>
@@ -1639,7 +3447,7 @@
         <v>71.52</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>41791</v>
       </c>
@@ -1656,7 +3464,7 @@
         <v>75.66</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>41821</v>
       </c>
@@ -1673,7 +3481,7 @@
         <v>79.12</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>41852</v>
       </c>
@@ -1690,7 +3498,7 @@
         <v>57.72</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>41883</v>
       </c>
@@ -1707,7 +3515,7 @@
         <v>74.03</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>41913</v>
       </c>
@@ -1724,7 +3532,7 @@
         <v>87.23</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>41944</v>
       </c>
@@ -1741,7 +3549,7 @@
         <v>75.88</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>41974</v>
       </c>
@@ -1758,7 +3566,7 @@
         <v>65.45</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>42005</v>
       </c>
@@ -1775,7 +3583,7 @@
         <v>101.41</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>42036</v>
       </c>
@@ -1792,7 +3600,7 @@
         <v>95.02</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>42064</v>
       </c>
@@ -1809,7 +3617,7 @@
         <v>105.54</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>42095</v>
       </c>
@@ -1826,7 +3634,7 @@
         <v>69.28</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>42125</v>
       </c>
@@ -1843,7 +3651,7 @@
         <v>62.58</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>42156</v>
       </c>
@@ -1860,7 +3668,7 @@
         <v>77.56</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>42186</v>
       </c>
@@ -1877,7 +3685,7 @@
         <v>64.319999999999993</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>42217</v>
       </c>
@@ -1894,7 +3702,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>42248</v>
       </c>
@@ -1911,7 +3719,7 @@
         <v>70.3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>42278</v>
       </c>
@@ -1928,7 +3736,7 @@
         <v>79.09</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>42309</v>
       </c>
@@ -1945,7 +3753,7 @@
         <v>77.38</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>42339</v>
       </c>
@@ -1962,7 +3770,7 @@
         <v>58.75</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>42370</v>
       </c>
@@ -1979,7 +3787,7 @@
         <v>92.09</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>42401</v>
       </c>
@@ -1996,7 +3804,7 @@
         <v>91.49</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>42430</v>
       </c>
@@ -2013,7 +3821,7 @@
         <v>82.96</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>42461</v>
       </c>
@@ -2030,7 +3838,7 @@
         <v>81.5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>42491</v>
       </c>
@@ -2047,7 +3855,7 @@
         <v>87.64</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>42522</v>
       </c>
@@ -2064,7 +3872,7 @@
         <v>85.07</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>42552</v>
       </c>
@@ -2081,7 +3889,7 @@
         <v>64.94</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>42583</v>
       </c>
@@ -2098,7 +3906,7 @@
         <v>59.59</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>42614</v>
       </c>
@@ -2115,7 +3923,7 @@
         <v>76.25</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>42644</v>
       </c>
@@ -2132,7 +3940,7 @@
         <v>65.63</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>42675</v>
       </c>
@@ -2149,7 +3957,7 @@
         <v>62.95</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>42705</v>
       </c>
@@ -2166,7 +3974,7 @@
         <v>41.37</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>42736</v>
       </c>
@@ -2183,7 +3991,7 @@
         <v>65.89</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>42767</v>
       </c>
@@ -2200,7 +4008,7 @@
         <v>73.52</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>42795</v>
       </c>
@@ -2217,7 +4025,7 @@
         <v>74.930000000000007</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>42826</v>
       </c>
@@ -2234,7 +4042,7 @@
         <v>56.95</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>42856</v>
       </c>
@@ -2251,7 +4059,7 @@
         <v>63.68</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>42887</v>
       </c>
@@ -2268,7 +4076,7 @@
         <v>70.14</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>42917</v>
       </c>
@@ -2285,7 +4093,7 @@
         <v>53.98</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>42948</v>
       </c>
@@ -2302,7 +4110,7 @@
         <v>61.29</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>42979</v>
       </c>
@@ -2319,7 +4127,7 @@
         <v>62.05</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>43009</v>
       </c>
@@ -2336,7 +4144,7 @@
         <v>58.45</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>43040</v>
       </c>
@@ -2353,7 +4161,7 @@
         <v>71.19</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>43070</v>
       </c>
@@ -2370,7 +4178,7 @@
         <v>53.32</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>43101</v>
       </c>
@@ -2387,7 +4195,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>43132</v>
       </c>
@@ -2404,7 +4212,7 @@
         <v>60.29</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>43160</v>
       </c>
@@ -2421,7 +4229,7 @@
         <v>61.84</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>43191</v>
       </c>
@@ -2438,7 +4246,7 @@
         <v>54.18</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>43221</v>
       </c>
@@ -2455,7 +4263,7 @@
         <v>66.81</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>43252</v>
       </c>
@@ -2472,7 +4280,7 @@
         <v>62.6</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>43282</v>
       </c>
@@ -2489,7 +4297,7 @@
         <v>44.74</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>43313</v>
       </c>
@@ -2506,7 +4314,7 @@
         <v>44.53</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>43344</v>
       </c>
@@ -2523,7 +4331,7 @@
         <v>54.51</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>43374</v>
       </c>
@@ -2540,7 +4348,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>43405</v>
       </c>
@@ -2557,7 +4365,7 @@
         <v>55.61</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>43435</v>
       </c>
@@ -2574,7 +4382,7 @@
         <v>30.24</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>43466</v>
       </c>
@@ -2591,7 +4399,7 @@
         <v>50.74</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>43497</v>
       </c>
@@ -2608,7 +4416,7 @@
         <v>48.86</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>43525</v>
       </c>
@@ -2625,7 +4433,7 @@
         <v>57.25</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>43556</v>
       </c>
@@ -2642,7 +4450,7 @@
         <v>43.74</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>43586</v>
       </c>
@@ -2659,7 +4467,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>43617</v>
       </c>
@@ -2676,7 +4484,7 @@
         <v>37.15</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>43647</v>
       </c>
@@ -2693,7 +4501,7 @@
         <v>36.67</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>43678</v>
       </c>
@@ -2710,7 +4518,7 @@
         <v>33.409999999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>43709</v>
       </c>
@@ -2727,7 +4535,7 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>43739</v>
       </c>
@@ -2744,7 +4552,7 @@
         <v>39.68</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>43770</v>
       </c>
@@ -2761,7 +4569,7 @@
         <v>37.119999999999997</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>43800</v>
       </c>
@@ -2778,7 +4586,7 @@
         <v>32.42</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>43831</v>
       </c>
@@ -2795,7 +4603,7 @@
         <v>45.76</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>43862</v>
       </c>
@@ -2812,7 +4620,7 @@
         <v>41.19</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>43891</v>
       </c>
@@ -2829,7 +4637,7 @@
         <v>36.270000000000003</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>43922</v>
       </c>
@@ -2846,7 +4654,7 @@
         <v>36.83</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>43952</v>
       </c>
@@ -2863,7 +4671,7 @@
         <v>31.71</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>43983</v>
       </c>
@@ -2880,7 +4688,7 @@
         <v>28.39</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>44013</v>
       </c>
@@ -2897,7 +4705,7 @@
         <v>25.51</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>44044</v>
       </c>
@@ -2914,7 +4722,7 @@
         <v>21.03</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>44075</v>
       </c>
@@ -2931,7 +4739,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>44105</v>
       </c>
@@ -2948,7 +4756,7 @@
         <v>27.27</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>44136</v>
       </c>
@@ -2965,7 +4773,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>44166</v>
       </c>
@@ -2982,7 +4790,7 @@
         <v>22.45</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>44197</v>
       </c>
@@ -2999,7 +4807,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>44228</v>
       </c>
@@ -3016,7 +4824,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>44256</v>
       </c>
@@ -3033,7 +4841,7 @@
         <v>29.95</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>44287</v>
       </c>
@@ -3050,7 +4858,7 @@
         <v>19.97</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>44317</v>
       </c>
@@ -3067,7 +4875,7 @@
         <v>21.47</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>44348</v>
       </c>
@@ -3084,7 +4892,7 @@
         <v>16.420000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>44378</v>
       </c>
@@ -3101,7 +4909,7 @@
         <v>12.04</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>44409</v>
       </c>
@@ -3118,7 +4926,7 @@
         <v>12.44</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>44440</v>
       </c>
@@ -3135,7 +4943,7 @@
         <v>15.85</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>44470</v>
       </c>
@@ -3152,7 +4960,7 @@
         <v>14.11</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>44501</v>
       </c>
@@ -3169,7 +4977,7 @@
         <v>19.350000000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>44531</v>
       </c>
@@ -3186,7 +4994,7 @@
         <v>20.39</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>44562</v>
       </c>
@@ -3203,7 +5011,7 @@
         <v>26.66</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>44593</v>
       </c>
@@ -3220,7 +5028,7 @@
         <v>24.33</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>44621</v>
       </c>
@@ -3242,5 +5050,6 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>